--- a/Apply for Work/申请公司.xlsx
+++ b/Apply for Work/申请公司.xlsx
@@ -401,7 +401,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
